--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.189836504521096</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H2">
-        <v>0.189836504521096</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I2">
-        <v>0.04382171057633114</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J2">
-        <v>0.04382171057633114</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N2">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O2">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P2">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q2">
-        <v>3.507601156834842</v>
+        <v>4.101579455819834</v>
       </c>
       <c r="R2">
-        <v>3.507601156834842</v>
+        <v>24.609476734919</v>
       </c>
       <c r="S2">
-        <v>0.003374731451525417</v>
+        <v>0.002695071099391988</v>
       </c>
       <c r="T2">
-        <v>0.003374731451525417</v>
+        <v>0.002523457866964387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.189836504521096</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H3">
-        <v>0.189836504521096</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I3">
-        <v>0.04382171057633114</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J3">
-        <v>0.04382171057633114</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N3">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O3">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P3">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q3">
-        <v>1.567945545223682</v>
+        <v>1.938992200917</v>
       </c>
       <c r="R3">
-        <v>1.567945545223682</v>
+        <v>17.450929808253</v>
       </c>
       <c r="S3">
-        <v>0.001508550975197058</v>
+        <v>0.001274075486998786</v>
       </c>
       <c r="T3">
-        <v>0.001508550975197058</v>
+        <v>0.001789419847679841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.189836504521096</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H4">
-        <v>0.189836504521096</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I4">
-        <v>0.04382171057633114</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J4">
-        <v>0.04382171057633114</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N4">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O4">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P4">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q4">
-        <v>18.4533217868442</v>
+        <v>21.28002783666767</v>
       </c>
       <c r="R4">
-        <v>18.4533217868442</v>
+        <v>191.520250530009</v>
       </c>
       <c r="S4">
-        <v>0.01775430062732033</v>
+        <v>0.0139827080359209</v>
       </c>
       <c r="T4">
-        <v>0.01775430062732033</v>
+        <v>0.01963850300795647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.189836504521096</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H5">
-        <v>0.189836504521096</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I5">
-        <v>0.04382171057633114</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J5">
-        <v>0.04382171057633114</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N5">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O5">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P5">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q5">
-        <v>18.60068305247249</v>
+        <v>21.58743941659956</v>
       </c>
       <c r="R5">
-        <v>18.60068305247249</v>
+        <v>194.286954749396</v>
       </c>
       <c r="S5">
-        <v>0.01789607977369885</v>
+        <v>0.01418470243188885</v>
       </c>
       <c r="T5">
-        <v>0.01789607977369885</v>
+        <v>0.01992220109724048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.189836504521096</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H6">
-        <v>0.189836504521096</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I6">
-        <v>0.04382171057633114</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J6">
-        <v>0.04382171057633114</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N6">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O6">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P6">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q6">
-        <v>2.507857544443254</v>
+        <v>2.933999004357</v>
       </c>
       <c r="R6">
-        <v>2.507857544443254</v>
+        <v>26.405991039213</v>
       </c>
       <c r="S6">
-        <v>0.002412858632654527</v>
+        <v>0.001927875835994717</v>
       </c>
       <c r="T6">
-        <v>0.002412858632654527</v>
+        <v>0.002707672598675937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.189836504521096</v>
+        <v>0.2182836666666667</v>
       </c>
       <c r="H7">
-        <v>0.189836504521096</v>
+        <v>0.6548510000000001</v>
       </c>
       <c r="I7">
-        <v>0.04382171057633114</v>
+        <v>0.03475705869483504</v>
       </c>
       <c r="J7">
-        <v>0.04382171057633114</v>
+        <v>0.04722977609795449</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N7">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O7">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P7">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q7">
-        <v>0.9096470043905669</v>
+        <v>1.054094554879167</v>
       </c>
       <c r="R7">
-        <v>0.9096470043905669</v>
+        <v>6.324567329275001</v>
       </c>
       <c r="S7">
-        <v>0.0008751891159349591</v>
+        <v>0.0006926258046398048</v>
       </c>
       <c r="T7">
-        <v>0.0008751891159349591</v>
+        <v>0.0006485216794373857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.151579579749464</v>
+        <v>0.247318</v>
       </c>
       <c r="H8">
-        <v>0.151579579749464</v>
+        <v>0.741954</v>
       </c>
       <c r="I8">
-        <v>0.03499051191350164</v>
+        <v>0.03938016239857255</v>
       </c>
       <c r="J8">
-        <v>0.03499051191350164</v>
+        <v>0.05351190010396521</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N8">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O8">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P8">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q8">
-        <v>2.800729557379071</v>
+        <v>4.647138484271</v>
       </c>
       <c r="R8">
-        <v>2.800729557379071</v>
+        <v>27.882830905626</v>
       </c>
       <c r="S8">
-        <v>0.002694636505660456</v>
+        <v>0.003053547726854327</v>
       </c>
       <c r="T8">
-        <v>0.002694636505660456</v>
+        <v>0.002859107885955271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.151579579749464</v>
+        <v>0.247318</v>
       </c>
       <c r="H9">
-        <v>0.151579579749464</v>
+        <v>0.741954</v>
       </c>
       <c r="I9">
-        <v>0.03499051191350164</v>
+        <v>0.03938016239857255</v>
       </c>
       <c r="J9">
-        <v>0.03499051191350164</v>
+        <v>0.05351190010396521</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N9">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O9">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P9">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q9">
-        <v>1.251964301674331</v>
+        <v>2.196901309518</v>
       </c>
       <c r="R9">
-        <v>1.251964301674331</v>
+        <v>19.772111785662</v>
       </c>
       <c r="S9">
-        <v>0.001204539260917561</v>
+        <v>0.001443542735493566</v>
       </c>
       <c r="T9">
-        <v>0.001204539260917561</v>
+        <v>0.002027434047845157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.151579579749464</v>
+        <v>0.247318</v>
       </c>
       <c r="H10">
-        <v>0.151579579749464</v>
+        <v>0.741954</v>
       </c>
       <c r="I10">
-        <v>0.03499051191350164</v>
+        <v>0.03938016239857255</v>
       </c>
       <c r="J10">
-        <v>0.03499051191350164</v>
+        <v>0.05351190010396521</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N10">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O10">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P10">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q10">
-        <v>14.73450413811551</v>
+        <v>24.110525560054</v>
       </c>
       <c r="R10">
-        <v>14.73450413811551</v>
+        <v>216.994730040486</v>
       </c>
       <c r="S10">
-        <v>0.01417635367140779</v>
+        <v>0.01584257511721544</v>
       </c>
       <c r="T10">
-        <v>0.01417635367140779</v>
+        <v>0.022250658334133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.151579579749464</v>
+        <v>0.247318</v>
       </c>
       <c r="H11">
-        <v>0.151579579749464</v>
+        <v>0.741954</v>
       </c>
       <c r="I11">
-        <v>0.03499051191350164</v>
+        <v>0.03938016239857255</v>
       </c>
       <c r="J11">
-        <v>0.03499051191350164</v>
+        <v>0.05351190010396521</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N11">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O11">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P11">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q11">
-        <v>14.85216832905516</v>
+        <v>24.45882654970934</v>
       </c>
       <c r="R11">
-        <v>14.85216832905516</v>
+        <v>220.129438947384</v>
       </c>
       <c r="S11">
-        <v>0.0142895606833021</v>
+        <v>0.01607143717906769</v>
       </c>
       <c r="T11">
-        <v>0.0142895606833021</v>
+        <v>0.02257209165581477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.151579579749464</v>
+        <v>0.247318</v>
       </c>
       <c r="H12">
-        <v>0.151579579749464</v>
+        <v>0.741954</v>
       </c>
       <c r="I12">
-        <v>0.03499051191350164</v>
+        <v>0.03938016239857255</v>
       </c>
       <c r="J12">
-        <v>0.03499051191350164</v>
+        <v>0.05351190010396521</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N12">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O12">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P12">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q12">
-        <v>2.002459925277372</v>
+        <v>3.324255895278</v>
       </c>
       <c r="R12">
-        <v>2.002459925277372</v>
+        <v>29.918303057502</v>
       </c>
       <c r="S12">
-        <v>0.001926605730838222</v>
+        <v>0.002184306335364265</v>
       </c>
       <c r="T12">
-        <v>0.001926605730838222</v>
+        <v>0.003067825375967978</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.151579579749464</v>
+        <v>0.247318</v>
       </c>
       <c r="H13">
-        <v>0.151579579749464</v>
+        <v>0.741954</v>
       </c>
       <c r="I13">
-        <v>0.03499051191350164</v>
+        <v>0.03938016239857255</v>
       </c>
       <c r="J13">
-        <v>0.03499051191350164</v>
+        <v>0.05351190010396521</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N13">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O13">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P13">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q13">
-        <v>0.7263298014979955</v>
+        <v>1.194301713475</v>
       </c>
       <c r="R13">
-        <v>0.7263298014979955</v>
+        <v>7.165810280850001</v>
       </c>
       <c r="S13">
-        <v>0.0006988160613755075</v>
+        <v>0.0007847533045772574</v>
       </c>
       <c r="T13">
-        <v>0.0006988160613755075</v>
+        <v>0.0007347828042490368</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.432271503890719</v>
+        <v>0.2840816666666667</v>
       </c>
       <c r="H14">
-        <v>0.432271503890719</v>
+        <v>0.852245</v>
       </c>
       <c r="I14">
-        <v>0.09978521666147419</v>
+        <v>0.04523399901256879</v>
       </c>
       <c r="J14">
-        <v>0.09978521666147419</v>
+        <v>0.06146641072641139</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N14">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O14">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P14">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q14">
-        <v>7.987062503804835</v>
+        <v>5.337932725650834</v>
       </c>
       <c r="R14">
-        <v>7.987062503804835</v>
+        <v>32.027596353905</v>
       </c>
       <c r="S14">
-        <v>0.007684508537798581</v>
+        <v>0.003507455694656228</v>
       </c>
       <c r="T14">
-        <v>0.007684508537798581</v>
+        <v>0.003284112492507554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.432271503890719</v>
+        <v>0.2840816666666667</v>
       </c>
       <c r="H15">
-        <v>0.432271503890719</v>
+        <v>0.852245</v>
       </c>
       <c r="I15">
-        <v>0.09978521666147419</v>
+        <v>0.04523399901256879</v>
       </c>
       <c r="J15">
-        <v>0.09978521666147419</v>
+        <v>0.06146641072641139</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N15">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O15">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P15">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q15">
-        <v>3.570325847299169</v>
+        <v>2.523469320915</v>
       </c>
       <c r="R15">
-        <v>3.570325847299169</v>
+        <v>22.711223888235</v>
       </c>
       <c r="S15">
-        <v>0.00343508009900054</v>
+        <v>0.001658124464064773</v>
       </c>
       <c r="T15">
-        <v>0.00343508009900054</v>
+        <v>0.002328810856341223</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.432271503890719</v>
+        <v>0.2840816666666667</v>
       </c>
       <c r="H16">
-        <v>0.432271503890719</v>
+        <v>0.852245</v>
       </c>
       <c r="I16">
-        <v>0.09978521666147419</v>
+        <v>0.04523399901256879</v>
       </c>
       <c r="J16">
-        <v>0.09978521666147419</v>
+        <v>0.06146641072641139</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N16">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O16">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P16">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q16">
-        <v>42.01955351370299</v>
+        <v>27.69454016816167</v>
       </c>
       <c r="R16">
-        <v>42.01955351370299</v>
+        <v>249.250861513455</v>
       </c>
       <c r="S16">
-        <v>0.04042783158097408</v>
+        <v>0.01819756404139782</v>
       </c>
       <c r="T16">
-        <v>0.04042783158097408</v>
+        <v>0.02555820483746052</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.432271503890719</v>
+        <v>0.2840816666666667</v>
       </c>
       <c r="H17">
-        <v>0.432271503890719</v>
+        <v>0.852245</v>
       </c>
       <c r="I17">
-        <v>0.09978521666147419</v>
+        <v>0.04523399901256879</v>
       </c>
       <c r="J17">
-        <v>0.09978521666147419</v>
+        <v>0.06146641072641139</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N17">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O17">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P17">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q17">
-        <v>42.35510581471632</v>
+        <v>28.09461588300223</v>
       </c>
       <c r="R17">
-        <v>42.35510581471632</v>
+        <v>252.85154294702</v>
       </c>
       <c r="S17">
-        <v>0.04075067299116544</v>
+        <v>0.0184604463062057</v>
       </c>
       <c r="T17">
-        <v>0.04075067299116544</v>
+        <v>0.02592741902221682</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.432271503890719</v>
+        <v>0.2840816666666667</v>
       </c>
       <c r="H18">
-        <v>0.432271503890719</v>
+        <v>0.852245</v>
       </c>
       <c r="I18">
-        <v>0.09978521666147419</v>
+        <v>0.04523399901256879</v>
       </c>
       <c r="J18">
-        <v>0.09978521666147419</v>
+        <v>0.06146641072641139</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N18">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O18">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P18">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q18">
-        <v>5.710573711915882</v>
+        <v>3.818404463715</v>
       </c>
       <c r="R18">
-        <v>5.710573711915882</v>
+        <v>34.365640173435</v>
       </c>
       <c r="S18">
-        <v>0.005494254292368565</v>
+        <v>0.00250900211169765</v>
       </c>
       <c r="T18">
-        <v>0.005494254292368565</v>
+        <v>0.003523855707418289</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.432271503890719</v>
+        <v>0.2840816666666667</v>
       </c>
       <c r="H19">
-        <v>0.432271503890719</v>
+        <v>0.852245</v>
       </c>
       <c r="I19">
-        <v>0.09978521666147419</v>
+        <v>0.04523399901256879</v>
       </c>
       <c r="J19">
-        <v>0.09978521666147419</v>
+        <v>0.06146641072641139</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.7917391161692</v>
+        <v>4.8290125</v>
       </c>
       <c r="N19">
-        <v>4.7917391161692</v>
+        <v>9.658025</v>
       </c>
       <c r="O19">
-        <v>0.0199715872435081</v>
+        <v>0.01992762997355499</v>
       </c>
       <c r="P19">
-        <v>0.0199715872435081</v>
+        <v>0.01373120376629253</v>
       </c>
       <c r="Q19">
-        <v>2.071332273998445</v>
+        <v>1.371833919354167</v>
       </c>
       <c r="R19">
-        <v>2.071332273998445</v>
+        <v>8.231003516125</v>
       </c>
       <c r="S19">
-        <v>0.00199286916016699</v>
+        <v>0.0009014063945466226</v>
       </c>
       <c r="T19">
-        <v>0.00199286916016699</v>
+        <v>0.0008440078104669837</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.55833190684287</v>
+        <v>0.5549943333333334</v>
       </c>
       <c r="H20">
-        <v>3.55833190684287</v>
+        <v>1.664983</v>
       </c>
       <c r="I20">
-        <v>0.8214025608486931</v>
+        <v>0.08837111321033719</v>
       </c>
       <c r="J20">
-        <v>0.8214025608486931</v>
+        <v>0.1200834606603648</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.4769581892773</v>
+        <v>18.7901345</v>
       </c>
       <c r="N20">
-        <v>18.4769581892773</v>
+        <v>37.580269</v>
       </c>
       <c r="O20">
-        <v>0.0770104910817463</v>
+        <v>0.07754025227090004</v>
       </c>
       <c r="P20">
-        <v>0.0770104910817463</v>
+        <v>0.05342938449953138</v>
       </c>
       <c r="Q20">
-        <v>65.74714986630708</v>
+        <v>10.42841817007117</v>
       </c>
       <c r="R20">
-        <v>65.74714986630708</v>
+        <v>62.570509020427</v>
       </c>
       <c r="S20">
-        <v>0.06325661458676186</v>
+        <v>0.006852318411789814</v>
       </c>
       <c r="T20">
-        <v>0.06325661458676186</v>
+        <v>0.006415985391656982</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.55833190684287</v>
+        <v>0.5549943333333334</v>
       </c>
       <c r="H21">
-        <v>3.55833190684287</v>
+        <v>1.664983</v>
       </c>
       <c r="I21">
-        <v>0.8214025608486931</v>
+        <v>0.08837111321033719</v>
       </c>
       <c r="J21">
-        <v>0.8214025608486931</v>
+        <v>0.1200834606603648</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.259452254344691</v>
+        <v>8.882901</v>
       </c>
       <c r="N21">
-        <v>8.259452254344691</v>
+        <v>26.648703</v>
       </c>
       <c r="O21">
-        <v>0.03442473959498633</v>
+        <v>0.03665659681347307</v>
       </c>
       <c r="P21">
-        <v>0.03442473959498633</v>
+        <v>0.03788753611638105</v>
       </c>
       <c r="Q21">
-        <v>29.38987248967998</v>
+        <v>4.929959718561</v>
       </c>
       <c r="R21">
-        <v>29.38987248967998</v>
+        <v>44.369637467049</v>
       </c>
       <c r="S21">
-        <v>0.02827656925987117</v>
+        <v>0.003239384266909114</v>
       </c>
       <c r="T21">
-        <v>0.02827656925987117</v>
+        <v>0.004549666452749596</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.55833190684287</v>
+        <v>0.5549943333333334</v>
       </c>
       <c r="H22">
-        <v>3.55833190684287</v>
+        <v>1.664983</v>
       </c>
       <c r="I22">
-        <v>0.8214025608486931</v>
+        <v>0.08837111321033719</v>
       </c>
       <c r="J22">
-        <v>0.8214025608486931</v>
+        <v>0.1200834606603648</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.2063925923875</v>
+        <v>97.48795299999999</v>
       </c>
       <c r="N22">
-        <v>97.2063925923875</v>
+        <v>292.463859</v>
       </c>
       <c r="O22">
-        <v>0.4051485072997066</v>
+        <v>0.4022983693381038</v>
       </c>
       <c r="P22">
-        <v>0.4051485072997066</v>
+        <v>0.4158076669096681</v>
       </c>
       <c r="Q22">
-        <v>345.8926083105869</v>
+        <v>54.10526148326633</v>
       </c>
       <c r="R22">
-        <v>345.8926083105869</v>
+        <v>486.947353349397</v>
       </c>
       <c r="S22">
-        <v>0.3327900214200044</v>
+        <v>0.03555155474111161</v>
       </c>
       <c r="T22">
-        <v>0.3327900214200044</v>
+        <v>0.04993162361162521</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.55833190684287</v>
+        <v>0.5549943333333334</v>
       </c>
       <c r="H23">
-        <v>3.55833190684287</v>
+        <v>1.664983</v>
       </c>
       <c r="I23">
-        <v>0.8214025608486931</v>
+        <v>0.08837111321033719</v>
       </c>
       <c r="J23">
-        <v>0.8214025608486931</v>
+        <v>0.1200834606603648</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>97.9826461691168</v>
+        <v>98.89626533333335</v>
       </c>
       <c r="N23">
-        <v>97.9826461691168</v>
+        <v>296.688796</v>
       </c>
       <c r="O23">
-        <v>0.4083838704225488</v>
+        <v>0.4081099772115274</v>
       </c>
       <c r="P23">
-        <v>0.4083838704225488</v>
+        <v>0.4218144302848664</v>
       </c>
       <c r="Q23">
-        <v>348.6547761804636</v>
+        <v>54.88686684782979</v>
       </c>
       <c r="R23">
-        <v>348.6547761804636</v>
+        <v>493.9818016304681</v>
       </c>
       <c r="S23">
-        <v>0.3354475569743824</v>
+        <v>0.03606513299842801</v>
       </c>
       <c r="T23">
-        <v>0.3354475569743824</v>
+        <v>0.05065293654508696</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.55833190684287</v>
+        <v>0.5549943333333334</v>
       </c>
       <c r="H24">
-        <v>3.55833190684287</v>
+        <v>1.664983</v>
       </c>
       <c r="I24">
-        <v>0.8214025608486931</v>
+        <v>0.08837111321033719</v>
       </c>
       <c r="J24">
-        <v>0.8214025608486931</v>
+        <v>0.1200834606603648</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.2106180040023</v>
+        <v>13.441221</v>
       </c>
       <c r="N24">
-        <v>13.2106180040023</v>
+        <v>40.323663</v>
       </c>
       <c r="O24">
-        <v>0.05506080435750386</v>
+        <v>0.05546717439244084</v>
       </c>
       <c r="P24">
-        <v>0.05506080435750386</v>
+        <v>0.05732977842326053</v>
       </c>
       <c r="Q24">
-        <v>47.00776355275425</v>
+        <v>7.459801488081</v>
       </c>
       <c r="R24">
-        <v>47.00776355275425</v>
+        <v>67.138213392729</v>
       </c>
       <c r="S24">
-        <v>0.04522708570164255</v>
+        <v>0.004901695947691906</v>
       </c>
       <c r="T24">
-        <v>0.04522708570164255</v>
+        <v>0.006884358191957038</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5549943333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.664983</v>
+      </c>
+      <c r="I25">
+        <v>0.08837111321033719</v>
+      </c>
+      <c r="J25">
+        <v>0.1200834606603648</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.8290125</v>
+      </c>
+      <c r="N25">
+        <v>9.658025</v>
+      </c>
+      <c r="O25">
+        <v>0.01992762997355499</v>
+      </c>
+      <c r="P25">
+        <v>0.01373120376629253</v>
+      </c>
+      <c r="Q25">
+        <v>2.680074573095834</v>
+      </c>
+      <c r="R25">
+        <v>16.080447438575</v>
+      </c>
+      <c r="S25">
+        <v>0.001761026844406737</v>
+      </c>
+      <c r="T25">
+        <v>0.001648890467289043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.975591</v>
+      </c>
+      <c r="H26">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J26">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>18.7901345</v>
+      </c>
+      <c r="N26">
+        <v>37.580269</v>
+      </c>
+      <c r="O26">
+        <v>0.07754025227090004</v>
+      </c>
+      <c r="P26">
+        <v>0.05342938449953138</v>
+      </c>
+      <c r="Q26">
+        <v>93.49202410698949</v>
+      </c>
+      <c r="R26">
+        <v>373.968096427958</v>
+      </c>
+      <c r="S26">
+        <v>0.06143185933820769</v>
+      </c>
+      <c r="T26">
+        <v>0.03834672086244718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.975591</v>
+      </c>
+      <c r="H27">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J27">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.882901</v>
+      </c>
+      <c r="N27">
+        <v>26.648703</v>
+      </c>
+      <c r="O27">
+        <v>0.03665659681347307</v>
+      </c>
+      <c r="P27">
+        <v>0.03788753611638105</v>
+      </c>
+      <c r="Q27">
+        <v>44.197682269491</v>
+      </c>
+      <c r="R27">
+        <v>265.186093616946</v>
+      </c>
+      <c r="S27">
+        <v>0.02904146986000683</v>
+      </c>
+      <c r="T27">
+        <v>0.02719220491176523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.975591</v>
+      </c>
+      <c r="H28">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J28">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>97.48795299999999</v>
+      </c>
+      <c r="N28">
+        <v>292.463859</v>
+      </c>
+      <c r="O28">
+        <v>0.4022983693381038</v>
+      </c>
+      <c r="P28">
+        <v>0.4158076669096681</v>
+      </c>
+      <c r="Q28">
+        <v>485.0601815552229</v>
+      </c>
+      <c r="R28">
+        <v>2910.361089331338</v>
+      </c>
+      <c r="S28">
+        <v>0.318723967402458</v>
+      </c>
+      <c r="T28">
+        <v>0.298428677118493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.975591</v>
+      </c>
+      <c r="H29">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J29">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>98.89626533333335</v>
+      </c>
+      <c r="N29">
+        <v>296.688796</v>
+      </c>
+      <c r="O29">
+        <v>0.4081099772115274</v>
+      </c>
+      <c r="P29">
+        <v>0.4218144302848664</v>
+      </c>
+      <c r="Q29">
+        <v>492.0673677261454</v>
+      </c>
+      <c r="R29">
+        <v>2952.404206356872</v>
+      </c>
+      <c r="S29">
+        <v>0.3233282582959371</v>
+      </c>
+      <c r="T29">
+        <v>0.3027397819645074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.55833190684287</v>
-      </c>
-      <c r="H25">
-        <v>3.55833190684287</v>
-      </c>
-      <c r="I25">
-        <v>0.8214025608486931</v>
-      </c>
-      <c r="J25">
-        <v>0.8214025608486931</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.7917391161692</v>
-      </c>
-      <c r="N25">
-        <v>4.7917391161692</v>
-      </c>
-      <c r="O25">
-        <v>0.0199715872435081</v>
-      </c>
-      <c r="P25">
-        <v>0.0199715872435081</v>
-      </c>
-      <c r="Q25">
-        <v>17.05059818633192</v>
-      </c>
-      <c r="R25">
-        <v>17.05059818633192</v>
-      </c>
-      <c r="S25">
-        <v>0.01640471290603065</v>
-      </c>
-      <c r="T25">
-        <v>0.01640471290603065</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.975591</v>
+      </c>
+      <c r="H30">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J30">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>13.441221</v>
+      </c>
+      <c r="N30">
+        <v>40.323663</v>
+      </c>
+      <c r="O30">
+        <v>0.05546717439244084</v>
+      </c>
+      <c r="P30">
+        <v>0.05732977842326053</v>
+      </c>
+      <c r="Q30">
+        <v>66.87801823661098</v>
+      </c>
+      <c r="R30">
+        <v>401.268109419666</v>
+      </c>
+      <c r="S30">
+        <v>0.04394429416169231</v>
+      </c>
+      <c r="T30">
+        <v>0.04114606654924129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.975591</v>
+      </c>
+      <c r="H31">
+        <v>9.951181999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.7922576666836865</v>
+      </c>
+      <c r="J31">
+        <v>0.7177084524113041</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.8290125</v>
+      </c>
+      <c r="N31">
+        <v>9.658025</v>
+      </c>
+      <c r="O31">
+        <v>0.01992762997355499</v>
+      </c>
+      <c r="P31">
+        <v>0.01373120376629253</v>
+      </c>
+      <c r="Q31">
+        <v>24.0271911338875</v>
+      </c>
+      <c r="R31">
+        <v>96.10876453554999</v>
+      </c>
+      <c r="S31">
+        <v>0.01578781762538457</v>
+      </c>
+      <c r="T31">
+        <v>0.009855001004850083</v>
       </c>
     </row>
   </sheetData>
